--- a/datasets/one_four.xlsx
+++ b/datasets/one_four.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0A8A2-DAA0-4C0D-AE17-E61EDB903D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364384A-1702-46F8-809D-BE4DD4EAACCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2295" windowWidth="28800" windowHeight="18000" xr2:uid="{2D790274-9045-426A-9683-746F6DD1E06A}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{2D790274-9045-426A-9683-746F6DD1E06A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Theft</t>
   </si>
   <si>
-    <t>Narcotics</t>
+    <t>Drug</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
